--- a/mobi_client/mobi_client/mobi_config/excel/009_掉落表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/009_掉落表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340" tabRatio="779" activeTab="1"/>
+    <workbookView windowWidth="17325" windowHeight="25140" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="DropsNormal|任务掉落++" sheetId="1" r:id="rId1"/>
@@ -993,40 +993,40 @@
     <t>|索引_开发材料一阶3;1000;10;10</t>
   </si>
   <si>
-    <t>第一章支线关卡4</t>
+    <t>第二章支线关卡1</t>
   </si>
   <si>
     <t>|索引_开发材料二阶1;1000;1;1</t>
   </si>
   <si>
-    <t>第一章支线关卡5</t>
+    <t>第二章支线关卡2</t>
   </si>
   <si>
     <t>|索引_开发材料二阶2;1000;1;1</t>
   </si>
   <si>
-    <t>第一章支线关卡6</t>
+    <t>第二章支线关卡3</t>
   </si>
   <si>
     <t>|索引_开发材料二阶3;1000;1;1</t>
   </si>
   <si>
-    <t>第二章支线关卡1</t>
-  </si>
-  <si>
-    <t>|索引_开发材料二阶1;1000;15;15</t>
-  </si>
-  <si>
-    <t>第二章支线关卡2</t>
-  </si>
-  <si>
-    <t>|索引_开发材料二阶2;1000;15;15</t>
-  </si>
-  <si>
-    <t>第二章支线关卡3</t>
-  </si>
-  <si>
-    <t>|索引_开发材料二阶3;1000;15;15</t>
+    <t>第二章支线关卡4</t>
+  </si>
+  <si>
+    <t>|索引_开发材料二阶1;1000;5;5</t>
+  </si>
+  <si>
+    <t>第二章支线关卡5</t>
+  </si>
+  <si>
+    <t>|索引_开发材料二阶2;1000;5;5</t>
+  </si>
+  <si>
+    <t>第二章支线关卡6</t>
+  </si>
+  <si>
+    <t>|索引_开发材料二阶3;1000;5;5</t>
   </si>
   <si>
     <t>第三章支线关卡1</t>
@@ -5666,8 +5666,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3721"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -32765,8 +32765,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H435"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -33566,7 +33566,7 @@
     </row>
     <row r="53" s="19" customFormat="1" spans="1:5">
       <c r="A53" s="53">
-        <v>190004</v>
+        <v>190101</v>
       </c>
       <c r="B53" s="53" t="s">
         <v>293</v>
@@ -33581,7 +33581,7 @@
     </row>
     <row r="54" s="19" customFormat="1" spans="1:5">
       <c r="A54" s="53">
-        <v>190005</v>
+        <v>190102</v>
       </c>
       <c r="B54" s="53" t="s">
         <v>295</v>
@@ -33596,7 +33596,7 @@
     </row>
     <row r="55" s="19" customFormat="1" spans="1:5">
       <c r="A55" s="53">
-        <v>190006</v>
+        <v>190103</v>
       </c>
       <c r="B55" s="53" t="s">
         <v>297</v>
@@ -33611,7 +33611,7 @@
     </row>
     <row r="56" s="19" customFormat="1" spans="1:5">
       <c r="A56" s="53">
-        <v>190101</v>
+        <v>190104</v>
       </c>
       <c r="B56" s="53" t="s">
         <v>299</v>
@@ -33626,7 +33626,7 @@
     </row>
     <row r="57" s="19" customFormat="1" spans="1:5">
       <c r="A57" s="53">
-        <v>190102</v>
+        <v>190105</v>
       </c>
       <c r="B57" s="53" t="s">
         <v>301</v>
@@ -33641,7 +33641,7 @@
     </row>
     <row r="58" s="19" customFormat="1" spans="1:5">
       <c r="A58" s="53">
-        <v>190103</v>
+        <v>190106</v>
       </c>
       <c r="B58" s="53" t="s">
         <v>303</v>
@@ -39220,7 +39220,7 @@
   <conditionalFormatting sqref="A284:A297">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A16 A37:A61 A298:A435 A91:A168 A200:A269">
+  <conditionalFormatting sqref="A1:A16 A37:A61 A200:A269 A91:A168 A298:A435">
     <cfRule type="duplicateValues" dxfId="0" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A88 A90">
